--- a/develon_excavator_data_combined.xlsx
+++ b/develon_excavator_data_combined.xlsx
@@ -536,60 +536,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DX89R-7</t>
+          <t>9,518 kg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9,518 kg</t>
+          <t>0.28 m³</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.28 m³</t>
+          <t>48.5/2,100 (kW/rpm)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.5/2,100 (kW/rpm)</t>
+          <t>Develon D24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Develon D24</t>
+          <t>2.7/4.7 km/h</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7/4.7 km/h</t>
+          <t>7,015 mm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7,015 mm</t>
+          <t>4,110 mm</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4,110 mm</t>
+          <t>7,030 mm</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7,030 mm</t>
+          <t>6,430 mm</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6,430 mm</t>
+          <t>2,250 mm</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>2,250 mm</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>2,657 mm</t>
         </is>
@@ -603,60 +598,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DX55R-7M</t>
+          <t>5,980 kg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,980 kg</t>
+          <t>0.16 m3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.16 m3</t>
+          <t>36.4/2,200 kW/rpm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.4/2,200 kW/rpm</t>
+          <t>Develon DW02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Develon DW02</t>
+          <t>2.6 - 4.4 km/h</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6 - 4.4 km/h</t>
+          <t>6,090 mm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6,090 mm</t>
+          <t>3,630 mm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3,630 mm</t>
+          <t>3,925 mm</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3,925 mm</t>
+          <t>5,400 mm</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5,400 mm</t>
+          <t>1,980 mm</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>1,980 mm</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>2,575 mm</t>
         </is>
@@ -670,60 +660,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DX50Z-7M</t>
+          <t>5,480 kg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5,480 kg</t>
+          <t>0.14 m3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.14 m3</t>
+          <t>36.4/2,200 kW/rpm</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.4/2,200 kW/rpm</t>
+          <t>Develon DW02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Develon DW02</t>
+          <t>2.6 - 4.4 km/h</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.6 - 4.4 km/h</t>
+          <t>5,945 mm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5,945 mm</t>
+          <t>3,480 mm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3,480 mm</t>
+          <t>5,575 mm</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5,575 mm</t>
+          <t>5,386 mm</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5,386 mm</t>
+          <t>1,980 mm</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
-        <is>
-          <t>1,980 mm</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>2,575 mm</t>
         </is>
@@ -737,60 +722,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DX19Z-7B</t>
+          <t>1,995 kg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1,995 kg</t>
+          <t>0.05 m3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.05 m3</t>
+          <t>10.3 kW (14 ps) @ 2,200 rpm</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.3 kW (14 ps) @ 2,200 rpm</t>
+          <t>Yanmar 3TNV70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yanmar 3TNV70</t>
+          <t>2.0 - 3.7 km/h</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.0 - 3.7 km/h</t>
+          <t>3,810 mm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3,810 mm</t>
+          <t>2,180 mm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2,180 mm</t>
+          <t>3,680 mm</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3,680 mm</t>
+          <t>3,476 mm</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3,476 mm</t>
+          <t>950 mm</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
-        <is>
-          <t>950 mm</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>1,255 mm</t>
         </is>
@@ -804,60 +784,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DX27Z-7M (CABIN)</t>
+          <t>2,88 ton</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2,88 ton</t>
+          <t>0.06 m³</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06 m³</t>
+          <t>18.4/2,400 kW/rpm</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18.4/2,400 kW/rpm</t>
+          <t>DEVELON DN1.7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DEVELON DN1.7</t>
+          <t>4.4/2.6 km/h</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.4/2.6 km/h</t>
+          <t>4,655 mm</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4,655 mm</t>
+          <t>2,645 mm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2,645 mm</t>
+          <t>4,385 mm</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4,385 mm</t>
+          <t>4,186 mm</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4,186 mm</t>
+          <t>1,550 mm</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
-        <is>
-          <t>1,550 mm</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>2,448 mm</t>
         </is>
@@ -871,60 +846,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DX27Z-7M (CANOPY)</t>
+          <t>2.77 ton</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.77 ton</t>
+          <t>0.06 m³</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.06 m³</t>
+          <t>18.4/2,400 kW/rpm</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.4/2,400 kW/rpm</t>
+          <t>DEVELON DN1.7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DEVELON DN1.7</t>
+          <t>4.4/2.6 km/h</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.4/2.6 km/h</t>
+          <t>4,655 mm</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4,655 mm</t>
+          <t>2,645 mm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2,645 mm</t>
+          <t>4,385 mm</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4,385 mm</t>
+          <t>4,186 mm</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4,186 mm</t>
+          <t>1,550 mm</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
-        <is>
-          <t>1,550 mm</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>2,448 mm</t>
         </is>
@@ -933,1242 +903,1208 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DX300LC-7B</t>
+          <t>DX35Z-7M (CABIN)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DX300LC-7B</t>
+          <t>3,99 ton</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30,800 kg</t>
+          <t>0.11 m³</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.47 - 1.65 ㎥</t>
+          <t>18.4/2,200 kW/rpm</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>183kW (260 PS) @ 1,800 rpm (GROSS)</t>
+          <t>DEVELON DN1.7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DEVELON DL08</t>
+          <t>4.4/2.6 km/h</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.1 / 5.6 km/h</t>
+          <t>5,355 mm</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10,671 mm</t>
+          <t>3,275 mm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7,244 mm</t>
+          <t>5,095 mm</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10,255 mm</t>
+          <t>4,760 mm</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10,615 mm</t>
+          <t>1,700 mm</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3,200 mm</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3,697 mm</t>
+          <t>2,479 mm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DX220LCA-2M</t>
+          <t>DX55-5C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DX220LCA-2M</t>
+          <t>5.4 ton</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21,300 kg</t>
+          <t>0.21 m³</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>36.2/2,100 kW/rpm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>109/1,800 (kW/rpm)</t>
+          <t>YANMAR \ 4TNV94L-BVDBC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEVELON DB58TIS</t>
+          <t>2.9 - 4.6 km/h</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.0/5.5 km/h</t>
+          <t>6,135 mm</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9,875 mm</t>
+          <t>3,645 mm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6,595 mm</t>
+          <t>5,725 mm</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9,625 mm</t>
+          <t>5,870 mm</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9,505 mm</t>
+          <t>1,925 mm</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3,005 mm</t>
+          <t>2,590 mm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DX360LC-7B</t>
+          <t>DX55W</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DX360LC-7B</t>
+          <t>5.55 ton</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35.9 ton</t>
+          <t>0.175 m³</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.32 m3 H class</t>
+          <t>40.8/2,400 kW/rpm</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>210 kW (286 PS) @ 1,800 rpm</t>
+          <t>4TNV98-E</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SCANIA DC09 076A</t>
+          <t>3.0/1.0 km/h</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.0 - 5.0 km/h</t>
+          <t>6,110 mm</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10,924 mm</t>
+          <t>3,495 mm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7,182 mm</t>
+          <t>5,980 mm</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10,527 mm</t>
+          <t>6,120 mm</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11,296 mm</t>
+          <t>1,920 mm</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3,280 mm</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>3,560 mm</t>
+          <t>2,855 mm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DX260LC-7M</t>
+          <t>DX63-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Details not found</t>
+          <t>6,130 kg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.21 m³</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.2/2,200 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4TNV94L</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.7/2.6 km/h</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>6,060 mm</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3,815 mm</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5,785 mm</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5,685 mm</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1,980 mm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2,550 mm</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DX220A-2M</t>
+          <t>DX80R</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DX220A-2M</t>
+          <t>8.38 ton</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21.3 ton</t>
+          <t>0.28 m³</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>39.9/2,000 kW/rpm</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
+          <t>4TNV98-ZWDB8</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DEVELON DB58TIS</t>
+          <t>4.6/2.9 km/h</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.01 / 5.56 km/h</t>
+          <t>6,915 mm</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9,875 mm</t>
+          <t>4,180 mm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6,595 mm</t>
+          <t>6,625 mm</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6,840 mm</t>
+          <t>6,167 mm</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9,505 mm</t>
+          <t>2,300 mm</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>3,005 mm</t>
+          <t>2,638 mm</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DX235LCR-7</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DX235LCR-7</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>24.3 ton</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.92 m³</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>127/1,900 kW/rpm</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Develon DL06V</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3.2-5.8 km/h</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>9,830 mm</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>6,680 mm</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>10,805 mm</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>8,970 mm</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2,980 mm</t>
-        </is>
-      </c>
+          <t>DX300LC-7B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DX530LC-7B</t>
+          <t>DX220LCA-2M</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DX530LC-7B</t>
+          <t>21,300 kg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>53,300 kg</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.6 ㎥</t>
+          <t>109/1,800 (kW/rpm)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>294 kW / 2,100 rpm</t>
+          <t>DEVELON DB58TIS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SCANIA DC13</t>
+          <t>3.0/5.5 km/h</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.1 / 5.3 km/h</t>
+          <t>9,875 mm</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11,020 mm</t>
+          <t>6,595 mm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>7,015 mm</t>
+          <t>9,625 mm</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>9,790 mm</t>
+          <t>9,505 mm</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11,525 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3,900 mm</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>4,170 mm</t>
+          <t>3,005 mm</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DX490LC-7B</t>
+          <t>DX360LC-7B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DX490LC-7B</t>
+          <t>35.9 ton</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>50,700 kg</t>
+          <t>2.32 m3 H class</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.7 ㎥</t>
+          <t>210 kW (286 PS) @ 1,800 rpm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>294 kW / 2,100 rpm</t>
+          <t>SCANIA DC09 076A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SCANIA DC13</t>
+          <t>3.0 - 5.0 km/h</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.1 / 5.3 km/h</t>
+          <t>10,924 mm</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11,720 mm</t>
+          <t>7,182 mm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7,315 mm</t>
+          <t>10,527 mm</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10,885 mm</t>
+          <t>11,296 mm</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12,230 mm</t>
+          <t>3,280 mm</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3,900 mm</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>3,865 mm</t>
+          <t>3,560 mm</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DX360LCA-7M</t>
+          <t>DX260LC-7M</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DX360LCA-7M</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>37.6 ton</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.25~1.83 m³</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>233/1,800 kW/rpm</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>DX12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5.5/3.4 km/h</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>11,115 mm</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>7,485 mm</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>10,215 mm</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>11,315 mm</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>3,280 mm</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>3,420 mm</t>
+          <t>Details not found</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DX360LC-7M</t>
+          <t>DX220A-2M</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DX360LC-7M</t>
+          <t>21.3 ton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>37.7 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.25~2.32 m³</t>
+          <t>109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>209/1,900 kW/rpm</t>
+          <t>DEVELON DB58TIS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DL08</t>
+          <t>3.01 / 5.56 km/h</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.5/3.4 km/h</t>
+          <t>9,875 mm</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11,115 mm</t>
+          <t>6,595 mm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7,485 mm</t>
+          <t>6,840 mm</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10,215 mm</t>
+          <t>9,505 mm</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11,315 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3,280 mm</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>3,420 mm</t>
+          <t>3,005 mm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DX400LC-7M</t>
+          <t>DX235LCR-7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DX400LC-7M</t>
+          <t>24.3 ton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>42.1 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.25~1.83 m³</t>
+          <t>127/1,900 kW/rpm</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>228.4/1,800 kW/rpm</t>
+          <t>Develon DL06V</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SCANIA DC09</t>
+          <t>3.2-5.8 km/h</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5.4/3.0 km/h</t>
+          <t>9,830 mm</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11,115 mm</t>
+          <t>6,680 mm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7,485 mm</t>
+          <t>10,805 mm</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10,215 mm</t>
+          <t>8,970 mm</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11,285 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3,350 mm</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>3,415 mm</t>
+          <t>2,980 mm</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DX450LCA-7M</t>
+          <t>DX530LC-7B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DX450LCA-7M</t>
+          <t>53,300 kg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>44.3 ton</t>
+          <t>3.6 ㎥</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.44~2.16 m³</t>
+          <t>294 kW / 2,100 rpm</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>253/1,800 kW/rpm</t>
+          <t>SCANIA DC13</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DEVELON DX12</t>
+          <t>3.1 / 5.3 km/h</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.3/3.2 km/h</t>
+          <t>11,020 mm</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11,430 mm</t>
+          <t>7,015 mm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7,635 mm</t>
+          <t>9,790 mm</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10,615 mm</t>
+          <t>11,525 mm</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>11,740 mm</t>
+          <t>3,900 mm</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3,350 mm</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>3,465 mm</t>
+          <t>4,170 mm</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DX210W-7B</t>
+          <t>DX490LC-7B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DX210W-7B</t>
+          <t>50,700 kg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20,100 kg</t>
+          <t>2.7 ㎥</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.86 ㎥</t>
+          <t>294 kW / 2,100 rpm</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>121 kW (165 PS, 163 HP) @2,000 rpm</t>
+          <t>SCANIA DC13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DL06</t>
+          <t>3.1 / 5.3 km/h</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9 / 36 km/h</t>
+          <t>11,720 mm</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10,010 mm</t>
+          <t>7,315 mm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6,275 mm</t>
+          <t>10,885 mm</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10,370 mm</t>
+          <t>12,230 mm</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>9,446 mm</t>
+          <t>3,900 mm</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2,530 mm</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>3,290 mm</t>
+          <t>3,865 mm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DX150W-7B</t>
+          <t>DX360LCA-7M</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Details not found</t>
+          <t>37.6 ton</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.25~1.83 m³</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>233/1,800 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DX12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.5/3.4 km/h</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>11,115 mm</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>7,485 mm</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10,215 mm</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>11,315 mm</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3,280 mm</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>3,420 mm</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DX190WA</t>
+          <t>DX360LC-7M</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DX190WA</t>
+          <t>37.7 ton</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18.5~19.86 ton</t>
+          <t>1.25~2.32 m³</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.76~0.8 m³</t>
+          <t>209/1,900 kW/rpm</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>116/1,900 kW/rpm</t>
+          <t>DL08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DB58TIS</t>
+          <t>5.5/3.4 km/h</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>36/32/10/3 km/h</t>
+          <t>11,115 mm</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9,190 mm</t>
+          <t>7,485 mm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5,950 mm</t>
+          <t>10,215 mm</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9,335 mm</t>
+          <t>11,315 mm</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8,750 mm</t>
+          <t>3,280 mm</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2,530 mm</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>3,310 mm</t>
+          <t>3,420 mm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DX210WA</t>
+          <t>DX400LC-7M</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DX210WA</t>
+          <t>42.1 ton</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19.9~20.9 ton</t>
+          <t>1.25~1.83 m³</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.51~1.35 m³</t>
+          <t>228.4/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>120/2,000 kW/rpm</t>
+          <t>SCANIA DC09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DE58TIS</t>
+          <t>5.4/3.0 km/h</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>36/9/4 km/h</t>
+          <t>11,115 mm</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9,739 mm</t>
+          <t>7,485 mm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6,010 mm</t>
+          <t>10,215 mm</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>9,800 mm</t>
+          <t>11,285 mm</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>9,420 mm</t>
+          <t>3,350 mm</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2,530 mm</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>3,200 mm</t>
+          <t>3,415 mm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DX35Z-7M (CABIN)</t>
+          <t>DX450LCA-7M</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DX35Z-7M (CABIN)</t>
+          <t>44.3 ton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,99 ton</t>
+          <t>1.44~2.16 m³</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.11 m³</t>
+          <t>253/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>18.4/2,200 kW/rpm</t>
+          <t>DEVELON DX12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DEVELON DN1.7</t>
+          <t>5.3/3.2 km/h</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4.4/2.6 km/h</t>
+          <t>11,430 mm</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5,355 mm</t>
+          <t>7,635 mm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3,275 mm</t>
+          <t>10,615 mm</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5,095 mm</t>
+          <t>11,740 mm</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4,760 mm</t>
+          <t>3,350 mm</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1,700 mm</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2,479 mm</t>
+          <t>3,465 mm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DX55-5C</t>
+          <t>DX210W-7B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Details not found</t>
+          <t>20,100 kg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.86 ㎥</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>121 kW (165 PS, 163 HP) @2,000 rpm</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DL06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9 / 36 km/h</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10,010 mm</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>6,275 mm</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10,370 mm</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>9,446 mm</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2,530 mm</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3,290 mm</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DX55W</t>
+          <t>DX150W-7B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DX55W</t>
+          <t>13,520 kg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5.55 ton</t>
+          <t>0.76 ㎥</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.175 m³</t>
+          <t>100 kW (136 PS) @ 2,000 rpm</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>40.8/2,400 kW/rpm</t>
+          <t>DL06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4TNV98-E</t>
+          <t>3.9 / 38 km/h</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3.0/1.0 km/h</t>
+          <t>7,615 mm</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6,110 mm</t>
+          <t>4,477 mm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3,495 mm</t>
+          <t>8,337 mm</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>5,980 mm</t>
+          <t>7,390 mm</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6,120 mm</t>
+          <t>2,523 mm</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1,920 mm</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2,855 mm</t>
+          <t>3,504 mm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DX63-3</t>
+          <t>DX190WA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DX63-3</t>
+          <t>18.5~19.86 ton</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6,130 kg</t>
+          <t>0.76~0.8 m³</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.21 m³</t>
+          <t>116/1,900 kW/rpm</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>36.2/2,200 kW/rpm</t>
+          <t>DB58TIS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4TNV94L</t>
+          <t>36/32/10/3 km/h</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.7/2.6 km/h</t>
+          <t>9,190 mm</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6,060 mm</t>
+          <t>5,950 mm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3,815 mm</t>
+          <t>9,335 mm</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5,785 mm</t>
+          <t>8,750 mm</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5,685 mm</t>
+          <t>2,530 mm</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1,980 mm</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2,550 mm</t>
+          <t>3,310 mm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DX80R</t>
+          <t>DX210WA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DX80R</t>
+          <t>19.9~20.9 ton</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8.38 ton</t>
+          <t>0.51~1.35 m³</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.28 m³</t>
+          <t>120/2,000 kW/rpm</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>39.9/2,000 kW/rpm</t>
+          <t>DE58TIS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4TNV98-ZWDB8</t>
+          <t>36/9/4 km/h</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.6/2.9 km/h</t>
+          <t>9,739 mm</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6,915 mm</t>
+          <t>6,010 mm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4,180 mm</t>
+          <t>9,800 mm</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6,625 mm</t>
+          <t>9,420 mm</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6,167 mm</t>
+          <t>2,530 mm</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2,300 mm</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2,638 mm</t>
+          <t>3,200 mm</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2116,57 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Details not found</t>
+          <t>15.6 ton</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.51 m³</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>81.6/2,000 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Develon G2 D34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.9-4.7 km/h</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>8,285 mm</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5,485 mm</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>9,265 mm</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>7,360 mm</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2,590 mm</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2,770 mm</t>
         </is>
       </c>
     </row>
@@ -2192,60 +2178,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DX200A-7M</t>
+          <t>20.7 ton</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20.7 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>105.3/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>105.3/1,800 kW/rpm</t>
+          <t>DB58TIS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DB58TIS</t>
+          <t>5.9/3.2 km/h</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.9/3.2 km/h</t>
+          <t>9,865 mm</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>9,865 mm</t>
+          <t>6,590 mm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>6,590 mm</t>
+          <t>9,620 mm</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9,620 mm</t>
+          <t>9,570 mm</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>9,570 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
         <is>
           <t>2,890 mm</t>
         </is>
@@ -2259,60 +2240,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DX220LC-7M</t>
+          <t>20.8~21.9 ton</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20.8~21.9 ton</t>
+          <t>0.92~1.17 m³</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.92~1.17 m³</t>
+          <t>115/1,900 kW/rpm</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>115/1,900 kW/rpm</t>
+          <t>DL06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DL06</t>
+          <t>5.5/3.0 km/h</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.5/3.0 km/h</t>
+          <t>9,873 mm</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>9,873 mm</t>
+          <t>6,592 mm</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6,592 mm</t>
+          <t>9,616 mm</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9,616 mm</t>
+          <t>9,506 mm</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9,506 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
         <is>
           <t>3,065 mm</t>
         </is>
@@ -2326,60 +2302,55 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DX220A-2M</t>
+          <t>21.3 ton</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21.3 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
+          <t>DEVELON DB58TIS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DEVELON DB58TIS</t>
+          <t>3.01 / 5.56 km/h</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3.01 / 5.56 km/h</t>
+          <t>9,875 mm</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9,875 mm</t>
+          <t>6,595 mm</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6,595 mm</t>
+          <t>6,840 mm</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6,840 mm</t>
+          <t>9,505 mm</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>9,505 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
         <is>
           <t>3,005 mm</t>
         </is>
@@ -2393,60 +2364,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DX225LC-7M</t>
+          <t>21.7 ton</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21.7 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>125/2,000 kW/rpm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>125/2,000 kW/rpm</t>
+          <t>DL06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DL06</t>
+          <t>5.5/3.0 km/h</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5.5/3.0 km/h</t>
+          <t>9,865 mm</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9,865 mm</t>
+          <t>6,590 mm</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6,590 mm</t>
+          <t>9,620 mm</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>9,620 mm</t>
+          <t>9,570 mm</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>9,570 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
         <is>
           <t>2,890 mm</t>
         </is>
@@ -2460,60 +2426,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DX225LCA-7M</t>
+          <t>21.7 ton</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21.7 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>121/2,000 kW/rpm</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>121/2,000 kW/rpm</t>
+          <t>DB58TIS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DB58TIS</t>
+          <t>6.5/3.5 km/h</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6.5/3.5 km/h</t>
+          <t>9,865 mm</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>9,865 mm</t>
+          <t>6,590 mm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6,590 mm</t>
+          <t>9,620 mm</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9,620 mm</t>
+          <t>9,570 mm</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>9,570 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
         <is>
           <t>2,890 mm</t>
         </is>
@@ -2527,60 +2488,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DX300LC-7M</t>
+          <t>31.8 ton</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31.8 ton</t>
+          <t>0.8~1.75 m³</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.8~1.75 m³</t>
+          <t>138/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>138/1,800 kW/rpm</t>
+          <t>Develon DL08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Develon DL08</t>
+          <t>5.2/2.9 km/h</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.2/2.9 km/h</t>
+          <t>10,670 mm</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10,670 mm</t>
+          <t>7,250 mm</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>7,250 mm</t>
+          <t>10,245 mm</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10,245 mm</t>
+          <t>10,610 mm</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>10,610 mm</t>
+          <t>3,200 mm</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
-        <is>
-          <t>3,200 mm</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
         <is>
           <t>3,370 mm</t>
         </is>
@@ -2594,60 +2550,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DX300LCA-7M</t>
+          <t>31.4 ton</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31.4 ton</t>
+          <t>0.8~1.75 m³</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.8~1.75 m³</t>
+          <t>138/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>138/1,800 kW/rpm</t>
+          <t>DE08TIS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DE08TIS</t>
+          <t>3.0/5.3 km/h</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3.0/5.3 km/h</t>
+          <t>10,670 mm</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10,670 mm</t>
+          <t>7,250 mm</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>7,250 mm</t>
+          <t>10,245 mm</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10,245 mm</t>
+          <t>10,610 mm</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>10,610 mm</t>
+          <t>3,200 mm</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
-        <is>
-          <t>3,200 mm</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
         <is>
           <t>3,370 mm</t>
         </is>
@@ -2661,60 +2612,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DX140LC</t>
+          <t>14 ton</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14 ton</t>
+          <t>0.24~0.76 m³</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.24~0.76 m³</t>
+          <t>71/1,850 kW/rpm</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>71/1,850 kW/rpm</t>
+          <t>DL06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DL06</t>
+          <t>4.3 km/h</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.3 km/h</t>
+          <t>8,300 mm</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>8,300 mm</t>
+          <t>5,645 mm</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5,645 mm</t>
+          <t>8,675 mm</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8,675 mm</t>
+          <t>7,680 mm</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>7,680 mm</t>
+          <t>2,590 mm</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
-        <is>
-          <t>2,590 mm</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
         <is>
           <t>2,710 mm</t>
         </is>
@@ -2728,60 +2674,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DX140LC</t>
+          <t>14 ton</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14 ton</t>
+          <t>0.24~0.76 m³</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.24~0.76 m³</t>
+          <t>71/1,850 kW/rpm</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>71/1,850 kW/rpm</t>
+          <t>DL06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DL06</t>
+          <t>4.3 km/h</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.3 km/h</t>
+          <t>8,300 mm</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8,300 mm</t>
+          <t>5,645 mm</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>5,645 mm</t>
+          <t>8,675 mm</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8,675 mm</t>
+          <t>7,680 mm</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>7,680 mm</t>
+          <t>2,590 mm</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
-        <is>
-          <t>2,590 mm</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
         <is>
           <t>2,710 mm</t>
         </is>
@@ -2795,60 +2736,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DX220LCA-2</t>
+          <t>21.3 ton</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21.3 ton</t>
+          <t>0.92 m³</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.92 m³</t>
+          <t>109/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>109/1,800 kW/rpm</t>
+          <t>DB58TIS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DB58TIS</t>
+          <t>5.5 km/h</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5.5 km/h</t>
+          <t>9,875 mm</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>9,875 mm</t>
+          <t>6,595 mm</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6,595 mm</t>
+          <t>9,625 mm</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>9,625 mm</t>
+          <t>9,545 mm</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>9,545 mm</t>
+          <t>2,990 mm</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
-        <is>
-          <t>2,990 mm</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
         <is>
           <t>3,005 mm</t>
         </is>
@@ -2874,60 +2810,55 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DX225NLCA</t>
+          <t>20.9 ton</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20.9 ton</t>
+          <t>0.51~1.28 m³</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.51~1.28 m³</t>
+          <t>102/1,900 kW/rpm</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>102/1,900 kW/rpm</t>
+          <t>DB58TIS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DB58TIS</t>
+          <t>5.4 km/h</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5.4 km/h</t>
+          <t>8,950 mm</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>8,950 mm</t>
+          <t>5,755 mm</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5,755 mm</t>
+          <t>9,060 mm</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9,060 mm</t>
+          <t>8,990 mm</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8,990 mm</t>
+          <t>2,540 mm</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
-        <is>
-          <t>2,540 mm</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
         <is>
           <t>3,050 mm</t>
         </is>
@@ -2941,60 +2872,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DX260LCA</t>
+          <t>24.8 ton</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>24.8 ton</t>
+          <t>0.51~1.51 m³</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.51~1.51 m³</t>
+          <t>136/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>136/1,800 kW/rpm</t>
+          <t>DE08TIS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DE08TIS</t>
+          <t>3.4 km/h</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.4 km/h</t>
+          <t>10,180 mm</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10,180 mm</t>
+          <t>6,800 mm</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6,800 mm</t>
+          <t>9,600 mm</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>9,600 mm</t>
+          <t>10,075 mm</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10,075 mm</t>
+          <t>3,200 mm</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
-        <is>
-          <t>3,200 mm</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
         <is>
           <t>3,195 mm</t>
         </is>
@@ -3008,60 +2934,55 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DX490LC-7M</t>
+          <t>51.0 ton</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>51.0 ton</t>
+          <t>1.71~3.28 m³</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.71~3.28 m³</t>
+          <t>289/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>289/1,800 kW/rpm</t>
+          <t>SCANIA DC13 076A</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SCANIA DC13 076A</t>
+          <t>5.5/3.1 km/h</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5.5/3.1 km/h</t>
+          <t>12,125 mm</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12,125 mm</t>
+          <t>7,790 mm</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7,790 mm</t>
+          <t>11,050 mm</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>11,050 mm</t>
+          <t>12,200 mm</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12,200 mm</t>
+          <t>3,577~4,100 mm</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
-        <is>
-          <t>3,577~4,100 mm</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
         <is>
           <t>3,680 mm</t>
         </is>
@@ -3075,60 +2996,55 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DX530LC-7M</t>
+          <t>53.5 ton</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>53.5 ton</t>
+          <t>1.94~3.80 m³</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.94~3.80 m³</t>
+          <t>289/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>289/1,800 kW/rpm</t>
+          <t>SCANIA DC13 076A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SCANIA DC13 076A</t>
+          <t>5.5/3.1 km/h</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5.5/3.1 km/h</t>
+          <t>10,735 mm</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>10,735 mm</t>
+          <t>6,755 mm</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6,755 mm</t>
+          <t>9,630 mm</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>9,630 mm</t>
+          <t>11,530 mm</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>11,530 mm</t>
+          <t>3,577/4,100 mm</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
-        <is>
-          <t>3,577/4,100 mm</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
         <is>
           <t>4,185 mm</t>
         </is>
@@ -3142,60 +3058,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DX1000LC-7</t>
+          <t>97.0~99.5 ton</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>97.0~99.5 ton</t>
+          <t>5.4~6.8 m³</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.4~6.8 m³</t>
+          <t>470/2,100 kW/rpm</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>470/2,100 kW/rpm</t>
+          <t>Perkins 2806D</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Perkins 2806D</t>
+          <t>4.5/2.6 km/h</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4.5/2.6 km/h</t>
+          <t>12,430 mm</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>12,430 mm</t>
+          <t>7,260 mm</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7,260 mm</t>
+          <t>12,425 mm</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12,425 mm</t>
+          <t>13,800 mm</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13,800 mm</t>
+          <t>3,440 mm</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
-        <is>
-          <t>3,440 mm</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
         <is>
           <t>5,090 mm</t>
         </is>
@@ -3209,60 +3120,55 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DX800LC-5B</t>
+          <t>76.9 ton</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>76.9 ton</t>
+          <t>3.42 m³</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.42 m³</t>
+          <t>354/1,800 kW/rpm</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>354/1,800 kW/rpm</t>
+          <t>2506D Tier3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2506D Tier3</t>
+          <t>4.8/2.9 km/h</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.8/2.9 km/h</t>
+          <t>13,195 mm</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>13,195 mm</t>
+          <t>8,345 mm</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8,345 mm</t>
+          <t>12,120 mm</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>12,120 mm</t>
+          <t>13,165 mm</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13,165 mm</t>
+          <t>4,000 mm</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
-        <is>
-          <t>4,000 mm</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
         <is>
           <t>4,865 mm</t>
         </is>
